--- a/biology/Médecine/Albert_Eulenburg/Albert_Eulenburg.xlsx
+++ b/biology/Médecine/Albert_Eulenburg/Albert_Eulenburg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Eulenburg, né le 10 août 1840 à Berlin et mort le 3 juillet 1917 dans cette même ville est un médecin neurologue et sexologue prussien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études de médecine à l'université Frédéric-Guillaume de Berlin, à celle de Berne et à celle de Zurich et obtient son doctorat en 1861. Parmi ses maîtres on compte Johannes Peter Müller (1801-1858), Ludwig Traube (1818-1876) et Albrecht von Graefe (1828-1870). Il est ensuite nommé professeur de pharmacologie à l'Université de Greifswald puis, en 1882, professeur de neurologie à Berlin.
 Eulenburg a laissé de nombreux écrits. Son œuvre la plus ambitieuse est l'ouvrage en plusieurs tomes Real-Encyclopädie der gesammten Heilkunde (Encyclopédie véritable de l'ensemble de la médecine), qui a été publiée en quatre éditions entre 1880 et 1914. Plus tard dans sa carrière, il s'intéresse à la sexologie, et devient co-éditeur de la revue Zeitschrift für Sexualwissenschaft. En 1902 Eulenburg a écrit un ouvrage sur l'algolagnie, intitulé  Sadismus und Masochismus  (Sadisme et masochisme).
@@ -545,7 +559,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Lehrbuch der functionellen Nervenkrankheiten auf Physiologischer Basis. 1871, Page 712: Syndrome de Parry-Romberg.
 (de) Pathologie des Sympathicus. Prize-winning paper, avec Paul Guttmann (1834-1893). Berlin, 1873.
